--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/34/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/34/FD_Curve.xlsx
@@ -499,10 +499,10 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.38875</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>4388.75</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>4.57305</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>4573.05</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>4.65555</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>4655.55</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>4.71297</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>4712.97</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>4.77246</v>
+        <v>8.918280000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>4772.46</v>
+        <v>8918.280000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278893</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>4.8131</v>
+        <v>9.899889999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>4813.1</v>
+        <v>9899.889999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309818</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>4.8501</v>
+        <v>10.7739</v>
       </c>
       <c r="C12" t="n">
-        <v>4850.1</v>
+        <v>10773.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340743</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>4.88971</v>
+        <v>11.6308</v>
       </c>
       <c r="C13" t="n">
-        <v>4889.71</v>
+        <v>11630.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371668</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>4.92428</v>
+        <v>12.4752</v>
       </c>
       <c r="C14" t="n">
-        <v>4924.28</v>
+        <v>12475.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402593</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>4.95624</v>
+        <v>13.1595</v>
       </c>
       <c r="C15" t="n">
-        <v>4956.24</v>
+        <v>13159.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433518</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>4.98751</v>
+        <v>13.6091</v>
       </c>
       <c r="C16" t="n">
-        <v>4987.51</v>
+        <v>13609.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464443</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>5.01798</v>
+        <v>13.7726</v>
       </c>
       <c r="C17" t="n">
-        <v>5017.98</v>
+        <v>13772.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495368</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>5.047479999999999</v>
+        <v>13.707</v>
       </c>
       <c r="C18" t="n">
-        <v>5047.48</v>
+        <v>13707</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526293</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>5.07518</v>
+        <v>13.6588</v>
       </c>
       <c r="C19" t="n">
-        <v>5075.18</v>
+        <v>13658.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557218</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>5.10081</v>
+        <v>13.5966</v>
       </c>
       <c r="C20" t="n">
-        <v>5100.81</v>
+        <v>13596.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588143</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>5.12704</v>
+        <v>13.5345</v>
       </c>
       <c r="C21" t="n">
-        <v>5127.04</v>
+        <v>13534.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619185</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>5.15146</v>
+        <v>13.4707</v>
       </c>
       <c r="C22" t="n">
-        <v>5151.46</v>
+        <v>13470.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650358</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>5.175890000000001</v>
+        <v>13.3953</v>
       </c>
       <c r="C23" t="n">
-        <v>5175.89</v>
+        <v>13395.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68153</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>5.1992</v>
+        <v>13.3198</v>
       </c>
       <c r="C24" t="n">
-        <v>5199.2</v>
+        <v>13319.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712708</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>5.22231</v>
+        <v>13.2307</v>
       </c>
       <c r="C25" t="n">
-        <v>5222.31</v>
+        <v>13230.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74388</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>5.244590000000001</v>
+        <v>13.1417</v>
       </c>
       <c r="C26" t="n">
-        <v>5244.59</v>
+        <v>13141.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775057</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>5.26613</v>
+        <v>13.0416</v>
       </c>
       <c r="C27" t="n">
-        <v>5266.13</v>
+        <v>13041.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80623</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>5.28729</v>
+        <v>12.9368</v>
       </c>
       <c r="C28" t="n">
-        <v>5287.29</v>
+        <v>12936.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837402</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>5.307930000000001</v>
+        <v>12.8273</v>
       </c>
       <c r="C29" t="n">
-        <v>5307.93</v>
+        <v>12827.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868579</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>5.32795</v>
+        <v>12.7075</v>
       </c>
       <c r="C30" t="n">
-        <v>5327.95</v>
+        <v>12707.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899752</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>5.34761</v>
+        <v>12.5868</v>
       </c>
       <c r="C31" t="n">
-        <v>5347.61</v>
+        <v>12586.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930924</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>5.366890000000001</v>
+        <v>12.4524</v>
       </c>
       <c r="C32" t="n">
-        <v>5366.89</v>
+        <v>12452.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962101</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>5.38579</v>
+        <v>12.3181</v>
       </c>
       <c r="C33" t="n">
-        <v>5385.79</v>
+        <v>12318.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993274</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>5.404260000000001</v>
+        <v>12.1722</v>
       </c>
       <c r="C34" t="n">
-        <v>5404.26</v>
+        <v>12172.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02426</v>
       </c>
       <c r="B35" t="n">
-        <v>5.422350000000001</v>
+        <v>12.0221</v>
       </c>
       <c r="C35" t="n">
-        <v>5422.35</v>
+        <v>12022.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>5.44008</v>
+        <v>11.8655</v>
       </c>
       <c r="C36" t="n">
-        <v>5440.08</v>
+        <v>11865.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.08619</v>
       </c>
       <c r="B37" t="n">
-        <v>5.45746</v>
+        <v>11.6995</v>
       </c>
       <c r="C37" t="n">
-        <v>5457.46</v>
+        <v>11699.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11872</v>
+        <v>1.1172</v>
       </c>
       <c r="B38" t="n">
-        <v>5.47448</v>
+        <v>10.3848</v>
       </c>
       <c r="C38" t="n">
-        <v>5474.48</v>
+        <v>10384.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1501</v>
+        <v>1.148</v>
       </c>
       <c r="B39" t="n">
-        <v>5.491210000000001</v>
+        <v>9.682530000000002</v>
       </c>
       <c r="C39" t="n">
-        <v>5491.21</v>
+        <v>9682.530000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18148</v>
+        <v>1.17908</v>
       </c>
       <c r="B40" t="n">
-        <v>5.50766</v>
+        <v>7.92341</v>
       </c>
       <c r="C40" t="n">
-        <v>5507.66</v>
+        <v>7923.41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21269</v>
+        <v>1.21014</v>
       </c>
       <c r="B41" t="n">
-        <v>5.52382</v>
+        <v>11.4181</v>
       </c>
       <c r="C41" t="n">
-        <v>5523.82</v>
+        <v>11418.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24365</v>
+        <v>1.24157</v>
       </c>
       <c r="B42" t="n">
-        <v>5.539689999999999</v>
+        <v>11.0627</v>
       </c>
       <c r="C42" t="n">
-        <v>5539.69</v>
+        <v>11062.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27462</v>
+        <v>1.27254</v>
       </c>
       <c r="B43" t="n">
-        <v>5.55527</v>
+        <v>10.8634</v>
       </c>
       <c r="C43" t="n">
-        <v>5555.27</v>
+        <v>10863.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30559</v>
+        <v>1.30335</v>
       </c>
       <c r="B44" t="n">
-        <v>5.57063</v>
+        <v>10.8543</v>
       </c>
       <c r="C44" t="n">
-        <v>5570.63</v>
+        <v>10854.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33656</v>
+        <v>1.33463</v>
       </c>
       <c r="B45" t="n">
-        <v>5.585649999999999</v>
+        <v>10.619</v>
       </c>
       <c r="C45" t="n">
-        <v>5585.65</v>
+        <v>10619</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36752</v>
+        <v>1.36546</v>
       </c>
       <c r="B46" t="n">
-        <v>5.60045</v>
+        <v>10.4176</v>
       </c>
       <c r="C46" t="n">
-        <v>5600.45</v>
+        <v>10417.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39849</v>
+        <v>1.39658</v>
       </c>
       <c r="B47" t="n">
-        <v>5.61497</v>
+        <v>10.2722</v>
       </c>
       <c r="C47" t="n">
-        <v>5614.97</v>
+        <v>10272.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42946</v>
+        <v>1.42764</v>
       </c>
       <c r="B48" t="n">
-        <v>5.62928</v>
+        <v>10.0773</v>
       </c>
       <c r="C48" t="n">
-        <v>5629.28</v>
+        <v>10077.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46043</v>
+        <v>1.45865</v>
       </c>
       <c r="B49" t="n">
-        <v>5.643359999999999</v>
+        <v>9.760280000000002</v>
       </c>
       <c r="C49" t="n">
-        <v>5643.36</v>
+        <v>9760.280000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.4914</v>
+        <v>1.48966</v>
       </c>
       <c r="B50" t="n">
-        <v>5.657229999999999</v>
+        <v>9.508990000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>5657.23</v>
+        <v>9508.99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52236</v>
+        <v>1.52067</v>
       </c>
       <c r="B51" t="n">
-        <v>5.67088</v>
+        <v>9.289629999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>5670.88</v>
+        <v>9289.629999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55333</v>
+        <v>1.5516</v>
       </c>
       <c r="B52" t="n">
-        <v>5.68435</v>
+        <v>9.194370000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>5684.35</v>
+        <v>9194.370000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.5843</v>
+        <v>1.58272</v>
       </c>
       <c r="B53" t="n">
-        <v>5.69761</v>
+        <v>8.973100000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>5697.61</v>
+        <v>8973.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61527</v>
+        <v>1.61365</v>
       </c>
       <c r="B54" t="n">
-        <v>5.710649999999999</v>
+        <v>8.74371</v>
       </c>
       <c r="C54" t="n">
-        <v>5710.65</v>
+        <v>8743.709999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64624</v>
+        <v>1.64479</v>
       </c>
       <c r="B55" t="n">
-        <v>5.72351</v>
+        <v>8.42712</v>
       </c>
       <c r="C55" t="n">
-        <v>5723.51</v>
+        <v>8427.120000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.6772</v>
+        <v>1.67551</v>
       </c>
       <c r="B56" t="n">
-        <v>5.73619</v>
+        <v>8.312340000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>5736.19</v>
+        <v>8312.34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70817</v>
+        <v>1.70684</v>
       </c>
       <c r="B57" t="n">
-        <v>5.748670000000001</v>
+        <v>8.213760000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>5748.67</v>
+        <v>8213.76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73914</v>
+        <v>1.73764</v>
       </c>
       <c r="B58" t="n">
-        <v>5.76097</v>
+        <v>8.06016</v>
       </c>
       <c r="C58" t="n">
-        <v>5760.97</v>
+        <v>8060.16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.7701</v>
+        <v>1.76881</v>
       </c>
       <c r="B59" t="n">
-        <v>5.77307</v>
+        <v>7.81841</v>
       </c>
       <c r="C59" t="n">
-        <v>5773.07</v>
+        <v>7818.41</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80108</v>
+        <v>1.79979</v>
       </c>
       <c r="B60" t="n">
-        <v>5.78499</v>
+        <v>7.665310000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>5784.99</v>
+        <v>7665.31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83204</v>
+        <v>1.83049</v>
       </c>
       <c r="B61" t="n">
-        <v>5.79675</v>
+        <v>7.54837</v>
       </c>
       <c r="C61" t="n">
-        <v>5796.75</v>
+        <v>7548.37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86301</v>
+        <v>1.86191</v>
       </c>
       <c r="B62" t="n">
-        <v>5.80836</v>
+        <v>7.425149999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>5808.36</v>
+        <v>7425.15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89398</v>
+        <v>1.89267</v>
       </c>
       <c r="B63" t="n">
-        <v>5.819770000000001</v>
+        <v>7.29878</v>
       </c>
       <c r="C63" t="n">
-        <v>5819.77</v>
+        <v>7298.78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92494</v>
+        <v>1.92356</v>
       </c>
       <c r="B64" t="n">
-        <v>5.83104</v>
+        <v>7.13492</v>
       </c>
       <c r="C64" t="n">
-        <v>5831.04</v>
+        <v>7134.92</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95591</v>
+        <v>1.955</v>
       </c>
       <c r="B65" t="n">
-        <v>5.84213</v>
+        <v>7.07927</v>
       </c>
       <c r="C65" t="n">
-        <v>5842.13</v>
+        <v>7079.27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98688</v>
+        <v>1.98575</v>
       </c>
       <c r="B66" t="n">
-        <v>5.85309</v>
+        <v>6.94895</v>
       </c>
       <c r="C66" t="n">
-        <v>5853.09</v>
+        <v>6948.95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01792</v>
+        <v>2.01656</v>
       </c>
       <c r="B67" t="n">
-        <v>5.8639</v>
+        <v>6.868060000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>5863.9</v>
+        <v>6868.06</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04931</v>
+        <v>2.04762</v>
       </c>
       <c r="B68" t="n">
-        <v>5.87451</v>
+        <v>6.72156</v>
       </c>
       <c r="C68" t="n">
-        <v>5874.51</v>
+        <v>6721.56</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08069</v>
+        <v>2.0787</v>
       </c>
       <c r="B69" t="n">
-        <v>5.88499</v>
+        <v>6.66221</v>
       </c>
       <c r="C69" t="n">
-        <v>5884.99</v>
+        <v>6662.21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11206</v>
+        <v>2.10946</v>
       </c>
       <c r="B70" t="n">
-        <v>5.89534</v>
+        <v>6.56031</v>
       </c>
       <c r="C70" t="n">
-        <v>5895.34</v>
+        <v>6560.31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14345</v>
+        <v>2.14026</v>
       </c>
       <c r="B71" t="n">
-        <v>5.90553</v>
+        <v>6.48023</v>
       </c>
       <c r="C71" t="n">
-        <v>5905.53</v>
+        <v>6480.23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17483</v>
+        <v>2.17172</v>
       </c>
       <c r="B72" t="n">
-        <v>5.91558</v>
+        <v>6.37899</v>
       </c>
       <c r="C72" t="n">
-        <v>5915.58</v>
+        <v>6378.99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20584</v>
+        <v>2.20319</v>
       </c>
       <c r="B73" t="n">
-        <v>5.925470000000001</v>
+        <v>6.319260000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>5925.47</v>
+        <v>6319.26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.2364</v>
+        <v>2.23298</v>
       </c>
       <c r="B74" t="n">
-        <v>5.93525</v>
+        <v>6.23379</v>
       </c>
       <c r="C74" t="n">
-        <v>5935.25</v>
+        <v>6233.79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26695</v>
+        <v>2.26416</v>
       </c>
       <c r="B75" t="n">
-        <v>5.944859999999999</v>
+        <v>6.17065</v>
       </c>
       <c r="C75" t="n">
-        <v>5944.86</v>
+        <v>6170.65</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29751</v>
+        <v>2.29605</v>
       </c>
       <c r="B76" t="n">
-        <v>5.95433</v>
+        <v>6.09084</v>
       </c>
       <c r="C76" t="n">
-        <v>5954.33</v>
+        <v>6090.84</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32806</v>
+        <v>2.32714</v>
       </c>
       <c r="B77" t="n">
-        <v>5.96369</v>
+        <v>6.05058</v>
       </c>
       <c r="C77" t="n">
-        <v>5963.69</v>
+        <v>6050.58</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35862</v>
+        <v>2.35786</v>
       </c>
       <c r="B78" t="n">
-        <v>5.9729</v>
+        <v>6.00934</v>
       </c>
       <c r="C78" t="n">
-        <v>5972.9</v>
+        <v>6009.34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38917</v>
+        <v>2.38909</v>
       </c>
       <c r="B79" t="n">
-        <v>5.982</v>
+        <v>6.02855</v>
       </c>
       <c r="C79" t="n">
-        <v>5982</v>
+        <v>6028.55</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41973</v>
+        <v>2.42038</v>
       </c>
       <c r="B80" t="n">
-        <v>5.99094</v>
+        <v>6.02724</v>
       </c>
       <c r="C80" t="n">
-        <v>5990.94</v>
+        <v>6027.24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45117</v>
+        <v>2.44893</v>
       </c>
       <c r="B81" t="n">
-        <v>6.00003</v>
+        <v>5.982850000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>6000.03</v>
+        <v>5982.85</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48275</v>
+        <v>2.47769</v>
       </c>
       <c r="B82" t="n">
-        <v>6.00905</v>
+        <v>5.98376</v>
       </c>
       <c r="C82" t="n">
-        <v>6009.05</v>
+        <v>5983.76</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51432</v>
+        <v>2.51199</v>
       </c>
       <c r="B83" t="n">
-        <v>6.017930000000001</v>
+        <v>5.9439</v>
       </c>
       <c r="C83" t="n">
-        <v>6017.93</v>
+        <v>5943.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54589</v>
+        <v>2.54719</v>
       </c>
       <c r="B84" t="n">
-        <v>6.02667</v>
+        <v>5.945729999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>6026.67</v>
+        <v>5945.73</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57746</v>
+        <v>2.58109</v>
       </c>
       <c r="B85" t="n">
-        <v>6.035310000000001</v>
+        <v>5.88062</v>
       </c>
       <c r="C85" t="n">
-        <v>6035.31</v>
+        <v>5880.62</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60904</v>
+        <v>2.6131</v>
       </c>
       <c r="B86" t="n">
-        <v>6.043810000000001</v>
+        <v>5.86185</v>
       </c>
       <c r="C86" t="n">
-        <v>6043.81</v>
+        <v>5861.85</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64061</v>
+        <v>2.6451</v>
       </c>
       <c r="B87" t="n">
-        <v>6.0522</v>
+        <v>5.85097</v>
       </c>
       <c r="C87" t="n">
-        <v>6052.2</v>
+        <v>5850.97</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67219</v>
+        <v>2.6771</v>
       </c>
       <c r="B88" t="n">
-        <v>6.06047</v>
+        <v>5.79883</v>
       </c>
       <c r="C88" t="n">
-        <v>6060.47</v>
+        <v>5798.83</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70376</v>
+        <v>2.7091</v>
       </c>
       <c r="B89" t="n">
-        <v>6.06862</v>
+        <v>5.771350000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>6068.62</v>
+        <v>5771.35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73533</v>
+        <v>2.7411</v>
       </c>
       <c r="B90" t="n">
-        <v>6.076680000000001</v>
+        <v>5.7399</v>
       </c>
       <c r="C90" t="n">
-        <v>6076.68</v>
+        <v>5739.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76691</v>
+        <v>2.7731</v>
       </c>
       <c r="B91" t="n">
-        <v>6.08461</v>
+        <v>5.701960000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>6084.61</v>
+        <v>5701.96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79848</v>
+        <v>2.8051</v>
       </c>
       <c r="B92" t="n">
-        <v>6.09245</v>
+        <v>5.66873</v>
       </c>
       <c r="C92" t="n">
-        <v>6092.45</v>
+        <v>5668.73</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83005</v>
+        <v>2.83491</v>
       </c>
       <c r="B93" t="n">
-        <v>6.100180000000001</v>
+        <v>5.63998</v>
       </c>
       <c r="C93" t="n">
-        <v>6100.18</v>
+        <v>5639.98</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86163</v>
+        <v>2.86372</v>
       </c>
       <c r="B94" t="n">
-        <v>6.10778</v>
+        <v>5.622479999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>6107.78</v>
+        <v>5622.48</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.8932</v>
+        <v>2.89252</v>
       </c>
       <c r="B95" t="n">
-        <v>6.11529</v>
+        <v>5.581090000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>6115.29</v>
+        <v>5581.09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92478</v>
+        <v>2.92132</v>
       </c>
       <c r="B96" t="n">
-        <v>6.12269</v>
+        <v>5.52278</v>
       </c>
       <c r="C96" t="n">
-        <v>6122.69</v>
+        <v>5522.78</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95635</v>
+        <v>2.95012</v>
       </c>
       <c r="B97" t="n">
-        <v>6.12999</v>
+        <v>5.519880000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>6129.99</v>
+        <v>5519.88</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98792</v>
+        <v>2.97892</v>
       </c>
       <c r="B98" t="n">
-        <v>6.137180000000001</v>
+        <v>5.477720000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>6137.18</v>
+        <v>5477.72</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01949</v>
+        <v>3.00772</v>
       </c>
       <c r="B99" t="n">
-        <v>6.144270000000001</v>
+        <v>5.46807</v>
       </c>
       <c r="C99" t="n">
-        <v>6144.27</v>
+        <v>5468.07</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.05107</v>
+        <v>3.03652</v>
       </c>
       <c r="B100" t="n">
-        <v>6.151260000000001</v>
+        <v>5.430359999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>6151.26</v>
+        <v>5430.36</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.08264</v>
+        <v>3.06532</v>
       </c>
       <c r="B101" t="n">
-        <v>6.15814</v>
+        <v>5.40427</v>
       </c>
       <c r="C101" t="n">
-        <v>6158.14</v>
+        <v>5404.27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11421</v>
+        <v>3.09378</v>
       </c>
       <c r="B102" t="n">
-        <v>6.16494</v>
+        <v>5.34168</v>
       </c>
       <c r="C102" t="n">
-        <v>6164.94</v>
+        <v>5341.68</v>
       </c>
     </row>
   </sheetData>
